--- a/fuentes/contenidos/grado08/guion01/SolicitudGrafica_LE_08_01_CO_REC180.xlsx
+++ b/fuentes/contenidos/grado08/guion01/SolicitudGrafica_LE_08_01_CO_REC180.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AULA PLANETA\PROCESO JUNIO 2015\GRADO OCTAVO\LE_08_01_CO\MOTORES Y SOLICITUD GRAFICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luz Amparo\Documents\GitHub\Lenguaje\fuentes\contenidos\grado08\guion01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
@@ -21,12 +21,12 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="191">
   <si>
     <t>Fecha:</t>
   </si>
@@ -2477,7 +2477,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="M1" s="2" t="str">
         <f>CONCATENATE('Definición técnica de imagenes'!$B$1," ",$G$5)</f>
-        <v>Ubicación de la imagen en el recurso F4</v>
+        <v>Ubicación de la imagen en el recurso M5A</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2539,7 +2539,7 @@
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
-        <v>Inicio</v>
+        <v>Contenido</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="M3" s="2" t="str">
         <f ca="1">IF($N3&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N3,1,1,1),"")</f>
-        <v>Contenido</v>
+        <v/>
       </c>
       <c r="N3" s="2">
         <v>1</v>
@@ -2602,7 +2602,7 @@
       <c r="K4" s="14"/>
       <c r="M4" s="2" t="str">
         <f ca="1">IF($N4&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N4,1,1,1),"")</f>
-        <v>Extra</v>
+        <v/>
       </c>
       <c r="N4" s="2">
         <v>2</v>
@@ -2627,7 +2627,7 @@
         <v>Motor del recurso</v>
       </c>
       <c r="G5" s="61" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E9" s="18" t="str">
         <f>IF($G$4="Recurso",$M$1,$L$1)</f>
-        <v>Ubicación de la imagen en el recurso F4</v>
+        <v>Ubicación de la imagen en el recurso M5A</v>
       </c>
       <c r="F9" s="57" t="s">
         <v>61</v>
@@ -2775,29 +2775,29 @@
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Recurso F4</v>
+        <v>Recurso M5A</v>
       </c>
       <c r="D10" s="63" t="s">
         <v>190</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" ca="1" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>LE_08_01_REC180_IMG01.jpg</v>
+        <v>LE_08_01_REC180_IMG01n.png</v>
       </c>
       <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>950 x 435 px</v>
+        <v>286 x 286 px</v>
       </c>
       <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
+        <v>LE_08_01_REC180_IMG01a.png</v>
       </c>
       <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>500 x 500 px</v>
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="64"/>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F4</v>
+        <v>Recurso M5A</v>
       </c>
       <c r="D11" s="63" t="s">
         <v>190</v>
@@ -2826,19 +2826,19 @@
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" ca="1" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>LE_08_01_REC180_IMG02.jpg</v>
+        <v>LE_08_01_REC180_IMG02n.png</v>
       </c>
       <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>750 x 365 px</v>
+        <v>286 x 286 px</v>
       </c>
       <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
+        <v>LE_08_01_REC180_IMG02a.png</v>
       </c>
       <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>500 x 500 px</v>
       </c>
       <c r="J11" s="64"/>
       <c r="K11" s="65"/>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Recurso F4</v>
+        <v>Recurso M5A</v>
       </c>
       <c r="D12" s="63" t="s">
         <v>190</v>
@@ -2867,19 +2867,19 @@
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>LE_08_01_REC180_IMG03.jpg</v>
+        <v>LE_08_01_REC180_IMG03n.png</v>
       </c>
       <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>750 x 365 px</v>
+        <v>286 x 286 px</v>
       </c>
       <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_08_01_REC180_IMG03a.png</v>
       </c>
       <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>500 x 500 px</v>
       </c>
       <c r="J12" s="64"/>
       <c r="K12" s="64"/>
@@ -2891,30 +2891,36 @@
     <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="B13" s="62"/>
+        <v>IMG04</v>
+      </c>
+      <c r="B13" s="62">
+        <v>46377904</v>
+      </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
+        <v>Recurso M5A</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>155</v>
+      </c>
       <c r="F13" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ca="1" si="4"/>
+        <v>LE_08_01_REC180_IMG04n.png</v>
       </c>
       <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>286 x 286 px</v>
       </c>
       <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>LE_08_01_REC180_IMG04a.png</v>
       </c>
       <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
+        <v>500 x 500 px</v>
       </c>
       <c r="J13" s="64"/>
       <c r="K13" s="64"/>
